--- a/biology/Écologie/La_Terre_vue_du_ciel_(film)/La_Terre_vue_du_ciel_(film).xlsx
+++ b/biology/Écologie/La_Terre_vue_du_ciel_(film)/La_Terre_vue_du_ciel_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Terre vue du ciel est un documentaire français réalisé par Renaud Delourme en 2004, présentant la planète au travers d'images tant magnifiques qu'alarmantes sur l'avenir.
 </t>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film est tiré des photos du livre de Yann Arthus-Bertrand La Terre vue du ciel. Avec comme prétexte les histoires qu’un homme raconte à un enfant avant qu’il ne s’endorme, Renaud Delourme met en exergue le paradoxe entre la nature et l’humanité, et comment l'homme bouleverse cet équilibre : avancée du désert sur les villes, agriculture et élevage intensifs, entraînant pollution et déforestation [1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est tiré des photos du livre de Yann Arthus-Bertrand La Terre vue du ciel. Avec comme prétexte les histoires qu’un homme raconte à un enfant avant qu’il ne s’endorme, Renaud Delourme met en exergue le paradoxe entre la nature et l’humanité, et comment l'homme bouleverse cet équilibre : avancée du désert sur les villes, agriculture et élevage intensifs, entraînant pollution et déforestation .
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Terre vue du ciel
 Réalisation : Renaud Delourme
@@ -583,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bernard Giraudeau : La voix de l'homme
 Nils Hugon : la voix de l'enfant</t>
